--- a/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.465</v>
+        <v>0.008</v>
       </c>
       <c r="H2">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.84</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>410</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Solea aegyptiaca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.781</v>
+        <v>0.373</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.622</v>
+        <v>8.492000000000001</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.057</v>
+        <v>0.381</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -637,24 +637,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,24 +678,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G8">
-        <v>2.103</v>
+        <v>0.021</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -719,24 +719,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G9">
-        <v>3.419</v>
+        <v>26.3</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.199</v>
+        <v>0.236</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G11">
-        <v>2.438</v>
+        <v>0.019</v>
       </c>
       <c r="H11">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,16 +847,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Lithognathus mormyrus</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.014</v>
+        <v>0.107</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.551</v>
+        <v>0.138</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Pegusa impar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.27</v>
+        <v>0.034</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Solea aegyptiaca</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="G15">
-        <v>3.549</v>
+        <v>0.34</v>
       </c>
       <c r="H15">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.021</v>
+        <v>12.126</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1052,16 +1052,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pteromylaeus (Myliobatis) bovinus (bovina)</t>
+          <t>Sparus aurata</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PTEOBOV</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>0.107</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>1.982</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,28 +1134,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Solea aegyptiaca</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.238</v>
+        <v>0.001</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,28 +1175,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G20">
-        <v>8.710000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="H20">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,28 +1216,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Algae nd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ALGAE</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.03</v>
+        <v>0.013</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,28 +1257,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Algae nd</t>
+          <t>Anadara spp.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALGAE</t>
+          <t>ANADSPP</t>
         </is>
       </c>
       <c r="G22">
-        <v>1.407</v>
+        <v>0.001</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,28 +1298,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.033</v>
+        <v>0.001</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,28 +1339,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Aphrodita aculeata</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>APHRACU</t>
         </is>
       </c>
       <c r="G25">
         <v>0.001</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,28 +1421,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aphroditidae n.d.</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>APHRND1</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.001</v>
+        <v>0.04</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I26">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1462,28 +1462,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1503,28 +1503,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.012</v>
+        <v>0.177</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I28">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1544,28 +1544,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.42</v>
+        <v>0.064</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>-1</v>
       </c>
       <c r="I29">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1585,28 +1585,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.135</v>
+        <v>0.239</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,28 +1626,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G31">
         <v>0.001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="I32">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,28 +1708,28 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Echinocardium cordatum</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>ECHICOR</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.003</v>
+        <v>0.022</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I33">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,28 +1749,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eunice vittata</t>
+          <t>Euspira macilenta</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EUNIVIT</t>
+          <t>EUSPMAC</t>
         </is>
       </c>
       <c r="G34">
         <v>0.001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1790,28 +1790,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Fustiaria rubescens</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>FUSTRUB</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fustiaria rubescens</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FUSTRUB</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1872,28 +1872,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ilia nucleus</t>
+          <t>Gracilaria sp.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ILIANUC</t>
+          <t>GRACIsp</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.001</v>
+        <v>0.371</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,28 +1913,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Maldanidae nd</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MALDAND</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.002</v>
+        <v>0.166</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I38">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1954,28 +1954,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Lima hians</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>LIMAHIA</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1995,28 +1995,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nephtys hystricis</t>
+          <t>Maldane sarsi</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NEPHHYS</t>
+          <t>MALDSAR</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
       <c r="I40">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2036,28 +2036,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nucula nitidosa</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NUCUNIT</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2077,12 +2077,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G42">
@@ -2092,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2118,28 +2118,28 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Nephtys sp</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>NEPHSPP</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.056</v>
+        <v>0.003</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2200,28 +2200,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Ophiothrix sp.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>OPHIOSP</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.08699999999999999</v>
+        <v>0.319</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <v>329</v>
       </c>
       <c r="I45">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2241,28 +2241,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sternaspis scutata</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STERSCU</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I46">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2282,28 +2282,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Thyone fusus</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>THYOFUS</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G47">
         <v>0.001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2323,28 +2323,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.318</v>
+        <v>0.004</v>
       </c>
       <c r="H48">
-        <v>824</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>47.0615</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2364,22 +2364,268 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Psammechinus microtuberculatus</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PSAMMIC</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>0.002</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Shells NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SHELLS</t>
+        </is>
+      </c>
+      <c r="G50">
+        <v>0.132</v>
+      </c>
+      <c r="H50">
+        <v>-1</v>
+      </c>
+      <c r="I50">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sipunculidae nd</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SIPUNND</t>
+        </is>
+      </c>
+      <c r="G51">
+        <v>0.001</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Stones NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>STONES</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="H52">
+        <v>-1</v>
+      </c>
+      <c r="I52">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Turritella communis</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>TURRCOM</t>
+        </is>
+      </c>
+      <c r="G53">
+        <v>0.002</v>
+      </c>
+      <c r="H53">
+        <v>36</v>
+      </c>
+      <c r="I53">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Ulva sp</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ULVASPP</t>
+        </is>
+      </c>
+      <c r="G54">
+        <v>0.156</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Wood NA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>WOOD</t>
         </is>
       </c>
-      <c r="G49">
-        <v>1.001</v>
-      </c>
-      <c r="H49">
+      <c r="G55">
+        <v>0.272</v>
+      </c>
+      <c r="H55">
         <v>-1</v>
       </c>
-      <c r="I49">
-        <v>47.0615</v>
+      <c r="I55">
+        <v>35.73</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="21">
@@ -1231,7 +1231,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="23">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="I28">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="I30">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>169</v>
       </c>
       <c r="I32">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="I33">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="I35">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="I38">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>329</v>
       </c>
       <c r="I45">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="I46">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="I48">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="49">
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="50">
@@ -2420,7 +2420,7 @@
         <v>-1</v>
       </c>
       <c r="I50">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="51">
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="I51">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="52">
@@ -2502,7 +2502,7 @@
         <v>-1</v>
       </c>
       <c r="I52">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="53">
@@ -2543,7 +2543,7 @@
         <v>36</v>
       </c>
       <c r="I53">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="54">
@@ -2584,7 +2584,7 @@
         <v>-1</v>
       </c>
       <c r="I54">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="55">
@@ -2625,7 +2625,7 @@
         <v>-1</v>
       </c>
       <c r="I55">
-        <v>35.73</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.008</v>
+        <v>4.22</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G5">
-        <v>8.492000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="H5">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -596,24 +596,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.381</v>
+        <v>0.369</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.369</v>
+        <v>0.021</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.021</v>
+        <v>26.3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G9">
-        <v>26.3</v>
+        <v>0.236</v>
       </c>
       <c r="H9">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.236</v>
+        <v>0.019</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -806,16 +806,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Lithognathus mormyrus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.019</v>
+        <v>0.107</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -847,16 +847,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lithognathus mormyrus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LITHMOR</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.107</v>
+        <v>0.138</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -888,16 +888,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Pegusa impar</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.138</v>
+        <v>0.034</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pegusa impar</t>
+          <t>Solea aegyptiaca</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.034</v>
+        <v>0.34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Solea aegyptiaca</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.34</v>
+        <v>12.126</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Sparus aurata</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SPARAUR</t>
         </is>
       </c>
       <c r="G16">
-        <v>12.126</v>
+        <v>0.107</v>
       </c>
       <c r="H16">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sparus aurata</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SPARAUR</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.107</v>
+        <v>1.982</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1093,22 +1093,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G18">
-        <v>1.982</v>
+        <v>0.001</v>
       </c>
       <c r="H18">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>88.52571428571427</v>
       </c>
     </row>
     <row r="19">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G19">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Algae nd</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>ALGAE</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I20">
         <v>88.52571428571427</v>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Algae nd</t>
+          <t>Anadara spp.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALGAE</t>
+          <t>ANADSPP</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>88.52571428571427</v>
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Anadara spp.</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANADSPP</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G22">
         <v>0.001</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>88.52571428571427</v>
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>88.52571428571427</v>
@@ -1339,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Aphrodita aculeata</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>APHRACU</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>88.52571428571427</v>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aphrodita aculeata</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>APHRACU</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.001</v>
+        <v>0.04</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I25">
         <v>88.52571428571427</v>
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.04</v>
+        <v>0.028</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26">
         <v>88.52571428571427</v>
@@ -1462,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ascidiacea nd</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ASCIDND</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.028</v>
+        <v>0.177</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I27">
         <v>88.52571428571427</v>
@@ -1503,19 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.177</v>
+        <v>0.064</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="I28">
         <v>88.52571428571427</v>
@@ -1544,19 +1544,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.064</v>
+        <v>0.239</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>88.52571428571427</v>
@@ -1585,19 +1585,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.239</v>
+        <v>0.001</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="I30">
         <v>88.52571428571427</v>
@@ -1626,19 +1626,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bryozoa nd</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BRYOZND</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>169</v>
       </c>
       <c r="I31">
         <v>88.52571428571427</v>
@@ -1667,19 +1667,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Echinocardium cordatum</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>ECHICOR</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.01</v>
+        <v>0.022</v>
       </c>
       <c r="H32">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I32">
         <v>88.52571428571427</v>
@@ -1708,19 +1708,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Echinocardium cordatum</t>
+          <t>Euspira macilenta</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ECHICOR</t>
+          <t>EUSPMAC</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.022</v>
+        <v>0.001</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>88.52571428571427</v>
@@ -1749,19 +1749,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Euspira macilenta</t>
+          <t>Fustiaria rubescens</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EUSPMAC</t>
+          <t>FUSTRUB</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>88.52571428571427</v>
@@ -1790,19 +1790,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fustiaria rubescens</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FUSTRUB</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>88.52571428571427</v>
@@ -1831,19 +1831,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Gracilaria sp.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>GRACIsp</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.006</v>
+        <v>0.371</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>88.52571428571427</v>
@@ -1872,19 +1872,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gracilaria sp.</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GRACIsp</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.371</v>
+        <v>0.166</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="I37">
         <v>88.52571428571427</v>
@@ -1913,19 +1913,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Lima hians</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>LIMAHIA</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.166</v>
+        <v>0.002</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>88.52571428571427</v>
@@ -1954,19 +1954,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lima hians</t>
+          <t>Maldane sarsi</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LIMAHIA</t>
+          <t>MALDSAR</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>88.52571428571427</v>
@@ -1995,19 +1995,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Maldane sarsi</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MALDSAR</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>88.52571428571427</v>
@@ -2036,19 +2036,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>88.52571428571427</v>
@@ -2077,12 +2077,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Nephtys sp</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>NEPHSPP</t>
         </is>
       </c>
       <c r="G42">
@@ -2118,16 +2118,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nephtys sp</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NEPHSPP</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiothrix sp.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIOSP</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.003</v>
+        <v>0.319</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="I44">
         <v>88.52571428571427</v>
@@ -2200,19 +2200,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ophiothrix sp.</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OPHIOSP</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.319</v>
+        <v>0.004</v>
       </c>
       <c r="H45">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="I45">
         <v>88.52571428571427</v>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>88.52571428571427</v>
@@ -2282,19 +2282,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47">
         <v>88.52571428571427</v>
@@ -2323,19 +2323,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>88.52571428571427</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.002</v>
+        <v>0.132</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>88.52571428571427</v>
@@ -2405,19 +2405,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Sipunculidae nd</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SIPUNND</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.132</v>
+        <v>0.001</v>
       </c>
       <c r="H50">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I50">
         <v>88.52571428571427</v>
@@ -2446,19 +2446,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sipunculidae nd</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SIPUNND</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I51">
         <v>88.52571428571427</v>
@@ -2487,19 +2487,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.06900000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="H52">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="I52">
         <v>88.52571428571427</v>
@@ -2528,19 +2528,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Ulva sp</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>ULVASPP</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.002</v>
+        <v>0.156</v>
       </c>
       <c r="H53">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>88.52571428571427</v>
@@ -2569,62 +2569,21 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ulva sp</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ULVASPP</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.156</v>
+        <v>0.272</v>
       </c>
       <c r="H54">
         <v>-1</v>
       </c>
       <c r="I54">
-        <v>88.52571428571427</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G55">
-        <v>0.272</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-      <c r="I55">
         <v>88.52571428571427</v>
       </c>
     </row>
